--- a/Documents/Adactin Hotel Project.xlsx
+++ b/Documents/Adactin Hotel Project.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationProgram\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC0DB9C-B88B-421C-9967-6F177725CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51952867-2FD9-4196-993E-602E222F1300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1681A10C-D31F-45D0-808A-8B26457EF0B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Test Report" sheetId="1" r:id="rId2"/>
+    <sheet name="Bug Report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -110,9 +111,6 @@
 No-of-rooms:1
 Check-in-date:today + 7 date
 Checkout date:today+5 date</t>
-  </si>
-  <si>
-    <t>System should report an error message.</t>
   </si>
   <si>
     <t>TC-103</t>
@@ -174,21 +172,6 @@
     <t>Log_in</t>
   </si>
   <si>
-    <t>URL:- http://adactinhotelapp.com/http://adactinhotelapp.com/
-User:{test username} 
-Password:{test
-password} 
-Location: Sydney 
-Hotel: Hotel Creek 
-Room type:standard
-No-of-rooms:1
-Check-in-date: today’s -5 date
-Checkout date: today’s -3 date</t>
-  </si>
-  <si>
-    <t>System should report an error</t>
-  </si>
-  <si>
     <t>TC-104</t>
   </si>
   <si>
@@ -576,17 +559,150 @@
 0</t>
   </si>
   <si>
-    <t>❌ Validation Error Message: Check-In Date shall be before than Check-Out Date</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Validation Error Message: Please Select Check-In Date</t>
+  </si>
+  <si>
+    <t>URL:- http://adactinhotelapp.com/http://adactinhotelapp.com/
+User:{test username} 
+Password:{test password} 
+Location: Sydney 
+Hotel: Hotel Creek 
+Room type:standard
+No-of-rooms:1
+Check-in-date: today’s -5 date
+Checkout date: today’s -3 date</t>
+  </si>
+  <si>
+    <t>user navigate to home page</t>
+  </si>
+  <si>
+    <r>
+      <t>System should report an error message."</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check-in-date should not be later than check-out-date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Validation Error Message: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check-In Date shall be before than Check-Out Date</t>
+    </r>
+  </si>
+  <si>
+    <t>System should report an error "Enter check-in-date and check-out-date after the current date"</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>No validation error displayed when entering past check-in and check-out dates</t>
+  </si>
+  <si>
+    <t>In the Adactin Hotel application, no error message is displayed when the user enters past dates for check-in and check-out.</t>
+  </si>
+  <si>
+    <t>"1. Launch the application
+2. Login with valid credentials
+3. Navigate to the hotel search form
+4. Enter all mandatory details
+5. Enter a check-in date in the past (e.g., 02/07/2025)
+6. Enter a check-out date in the past (e.g., 04/07/2025)
+7. Click the search button"</t>
+  </si>
+  <si>
+    <t>An error message should be displayed such as 'Enter check-in-date and check-out-date after the current date'</t>
+  </si>
+  <si>
+    <t>No error message is displayed</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Windows 
+11, 
+Chrome 138.0.7204.96, 
+Java 
+08.0.2,
+ Selenium 4.34.0</t>
+  </si>
+  <si>
+    <t>Swapnil Tulaskar</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +747,14 @@
       <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -756,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -809,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -827,14 +954,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -856,25 +1005,6 @@
         <patternFill>
           <fgColor rgb="FFFF5757"/>
           <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -951,10 +1081,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1267,24 +1393,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="75.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="18"/>
     </row>
@@ -1300,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714AFA1-5D26-4F63-88BC-6E960FFD9706}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,7 +1444,7 @@
     <col min="7" max="7" width="39.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1363,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
@@ -1382,9 +1508,11 @@
       <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="K2" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -1392,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -1403,276 +1531,280 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="J5" s="11"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="J8" s="11"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1685,7 +1817,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1698,7 +1830,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="16"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1711,7 +1843,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="16"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1724,7 +1856,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="16"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1737,7 +1869,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="16"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1750,7 +1882,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="16"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1763,7 +1895,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="16"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1776,7 +1908,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="16"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1789,7 +1921,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="16"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1802,7 +1934,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="16"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1815,7 +1947,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="16"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1828,7 +1960,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="16"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1841,7 +1973,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="16"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1854,7 +1986,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="16"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1867,7 +1999,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="16"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1880,7 +2012,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="16"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1893,7 +2025,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="16"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1906,7 +2038,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="16"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1919,7 +2051,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="16"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1932,7 +2064,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="16"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1945,7 +2077,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="16"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1958,7 +2090,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="16"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1971,7 +2103,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="16"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1984,7 +2116,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="16"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="10"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1997,7 +2129,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="16"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2010,7 +2142,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="16"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2023,7 +2155,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="10"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2036,7 +2168,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="16"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2049,7 +2181,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="16"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="10"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2062,7 +2194,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="16"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2075,7 +2207,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="16"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="10"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2088,7 +2220,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="16"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2101,7 +2233,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="15"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2114,7 +2246,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2127,7 +2259,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="10"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2140,7 +2272,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="10"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2153,7 +2285,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="10"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2166,7 +2298,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="10"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2179,7 +2311,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="15"/>
-      <c r="J53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2192,7 +2324,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="15"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2205,7 +2337,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="15"/>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="10"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2218,7 +2350,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="15"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2231,7 +2363,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="15"/>
-      <c r="J57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2244,7 +2376,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="15"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2257,7 +2389,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2270,7 +2402,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="15"/>
-      <c r="J60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2283,7 +2415,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="15"/>
-      <c r="J61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2296,7 +2428,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2309,7 +2441,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="15"/>
-      <c r="J63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2322,7 +2454,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="15"/>
-      <c r="J64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2335,7 +2467,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="15"/>
-      <c r="J65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2348,7 +2480,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2361,7 +2493,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="15"/>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2374,7 +2506,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2387,7 +2519,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2400,7 +2532,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="10"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2413,7 +2545,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="15"/>
-      <c r="J71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2426,7 +2558,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="15"/>
-      <c r="J72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2439,7 +2571,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="15"/>
-      <c r="J73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="10"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2452,7 +2584,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="15"/>
-      <c r="J74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="10"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2465,7 +2597,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="15"/>
-      <c r="J75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="10"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2478,7 +2610,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="15"/>
-      <c r="J76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -2491,7 +2623,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="15"/>
-      <c r="J77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -2504,7 +2636,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -2517,7 +2649,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="15"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="10"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -2530,7 +2662,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="15"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="10"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -2543,7 +2675,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="15"/>
-      <c r="J81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81" s="10"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -2556,7 +2688,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="10"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -2569,7 +2701,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="15"/>
-      <c r="J83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="10"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -2582,7 +2714,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84" s="10"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -2595,7 +2727,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="15"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85" s="10"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -2608,7 +2740,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="15"/>
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="10"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -2621,7 +2753,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="15"/>
-      <c r="J87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -2634,7 +2766,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="10"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -2647,7 +2779,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="15"/>
-      <c r="J89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89" s="10"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -2660,29 +2792,379 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="15"/>
-      <c r="J90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="10"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K90">
     <cfRule type="containsBlanks" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD45637-BA62-4807-AEB7-98B9190D5DCD}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Adactin Hotel Project.xlsx
+++ b/Documents/Adactin Hotel Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationProgram\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51952867-2FD9-4196-993E-602E222F1300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF40CC-4C1D-4A92-BDCA-C5A965720642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1681A10C-D31F-45D0-808A-8B26457EF0B7}"/>
   </bookViews>
@@ -1428,9 +1428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714AFA1-5D26-4F63-88BC-6E960FFD9706}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
